--- a/TestData/test_data.xlsx
+++ b/TestData/test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2448" windowWidth="18456" windowHeight="8244"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="18456" windowHeight="5448"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <t>Test@gmail.com</t>
   </si>
   <si>
-    <t>1234567</t>
+    <t>abc1234</t>
   </si>
 </sst>
 </file>
@@ -70,7 +70,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -375,9 +375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -395,6 +393,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId2" display="abc123@"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
